--- a/Data/Tomsdataset.xlsx
+++ b/Data/Tomsdataset.xlsx
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Class Calc.'!$I$2:$K$135</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="58">
   <si>
     <t>vf (mm/sec)</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -2376,7 +2379,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2743,7 +2745,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7141,10 +7142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7553,6 +7554,11 @@
       </c>
       <c r="G15" s="38">
         <v>-5.5633911553320176E-19</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Tomsdataset.xlsx
+++ b/Data/Tomsdataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="871"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="871" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transpose" sheetId="10" r:id="rId1"/>
@@ -697,6 +697,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1119,6 +1120,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1207,6 +1209,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1701,6 +1704,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1789,6 +1793,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2261,6 +2266,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6654,16 +6660,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6695,15 +6701,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6736,16 +6742,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7144,8 +7150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7570,8 +7576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7583,7 +7589,7 @@
     <col min="7" max="9" width="13.28515625" style="1" customWidth="1"/>
     <col min="10" max="11" width="8.85546875" style="1"/>
     <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8438,7 +8444,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M20"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9486,8 +9492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10570,7 +10576,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M21"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11646,7 +11652,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M15"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/Data/Tomsdataset.xlsx
+++ b/Data/Tomsdataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="871" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="871"/>
   </bookViews>
   <sheets>
     <sheet name="Transpose" sheetId="10" r:id="rId1"/>
@@ -1209,7 +1209,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1704,7 +1703,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1793,7 +1791,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2266,7 +2263,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2385,6 +2381,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2751,6 +2748,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6783,16 +6781,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7150,7 +7148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -7576,7 +7574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -12549,7 +12547,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15"/>
@@ -13210,7 +13208,7 @@
   <dimension ref="A1:R183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/Tomsdataset.xlsx
+++ b/Data/Tomsdataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="871"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="871" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Transpose" sheetId="10" r:id="rId1"/>
@@ -697,7 +697,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1120,7 +1119,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2381,7 +2379,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2748,7 +2745,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6822,16 +6818,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7148,8 +7144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19331,8 +19327,8 @@
   </sheetPr>
   <dimension ref="A1:T543"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -19344,6 +19340,7 @@
     <col min="10" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -32221,6 +32218,18 @@
   <sortState ref="A2:B175">
     <sortCondition ref="B2:B175"/>
   </sortState>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Data/Tomsdataset.xlsx
+++ b/Data/Tomsdataset.xlsx
@@ -19327,8 +19327,8 @@
   </sheetPr>
   <dimension ref="A1:T543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/Data/Tomsdataset.xlsx
+++ b/Data/Tomsdataset.xlsx
@@ -19328,7 +19328,7 @@
   <dimension ref="A1:T543"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/Data/Tomsdataset.xlsx
+++ b/Data/Tomsdataset.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="59">
   <si>
     <t>vf (mm/sec)</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -20893,9 +20896,8 @@
         <f t="shared" si="0"/>
         <v>5.2145334221726152E-16</v>
       </c>
-      <c r="K33" s="20">
-        <f t="shared" si="1"/>
-        <v>6.8302390628073127E-19</v>
+      <c r="K33" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="L33" s="14">
         <f t="shared" si="2"/>

--- a/Data/Tomsdataset.xlsx
+++ b/Data/Tomsdataset.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="58">
   <si>
     <t>vf (mm/sec)</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Guess 2</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Estimate</t>
   </si>
   <si>
@@ -254,7 +251,7 @@
     <t>d</t>
   </si>
   <si>
-    <t>s</t>
+    <t>rounded-N</t>
   </si>
 </sst>
 </file>
@@ -319,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -457,11 +454,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,6 +677,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6821,16 +6837,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7182,13 +7198,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="30" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7214,7 +7230,7 @@
         <v>12.8</v>
       </c>
       <c r="J2" s="74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="14">
         <v>7.86</v>
@@ -7246,10 +7262,10 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="L3" s="14">
         <v>0.5</v>
@@ -7561,7 +7577,7 @@
     </row>
     <row r="25" spans="9:9">
       <c r="I25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7628,7 +7644,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>38</v>
@@ -8495,7 +8511,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>38</v>
@@ -8507,7 +8523,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>1</v>
@@ -9542,7 +9558,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>38</v>
@@ -10625,7 +10641,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>38</v>
@@ -11701,7 +11717,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>38</v>
@@ -19328,10 +19344,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:T543"/>
+  <dimension ref="A1:U543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="N186" sqref="N186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -19341,12 +19357,14 @@
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="10" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
@@ -19361,16 +19379,17 @@
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
-      <c r="M1" s="16"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
@@ -19385,18 +19404,19 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
-      <c r="M2" s="16"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="13"/>
+      <c r="P2" s="16"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>0</v>
@@ -19428,21 +19448,28 @@
       <c r="K3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="Q3" s="13">
+        <f>ROUND(0.11,1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="13">
+        <f>ROUND(0.19,1)</f>
+        <v>0.2</v>
+      </c>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="19"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -19471,30 +19498,34 @@
         <v>500</v>
       </c>
       <c r="J4" s="20">
-        <f>0.75*PI()*$O$9*$O$8*(SQRT(($O$10/(2*H4))^2 +((9*$O$11*B4)/(1000*$O$8*$O$9))) - ($O$10/(2*H4)))^3 * ((B4-D4)/((I4/(F4/1000))*B4))</f>
+        <f>0.75*PI()*$P$9*$P$8*(SQRT(($P$10/(2*H4))^2 +((9*$P$11*B4)/(1000*$P$8*$P$9))) - ($P$10/(2*H4)))^3 * ((B4-D4)/((I4/(F4/1000))*B4))</f>
         <v>-2.8447954102542753E-19</v>
       </c>
       <c r="K4" s="20">
         <f>J4* ((1.5*(C4/B4)) + ((C4+E4)/(B4+D4))  + (C4/B4))</f>
         <v>-3.0299166374793077E-19</v>
       </c>
-      <c r="L4" s="14">
-        <f>ROUND(J4/$O$13,0)</f>
+      <c r="L4" s="20"/>
+      <c r="M4" s="14">
+        <f>ROUND(J4/$P$13,0)</f>
         <v>2</v>
       </c>
-      <c r="M4" s="14">
-        <f>J4/L4</f>
+      <c r="N4" s="14">
+        <f>J4/M4</f>
         <v>-1.4223977051271377E-19</v>
       </c>
-      <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14">
+        <f>J4/P13</f>
+        <v>1.8417337471587849</v>
+      </c>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="14"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -19523,30 +19554,31 @@
         <v>502</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" ref="J5:J68" si="0">0.75*PI()*$O$9*$O$8*(SQRT(($O$10/(2*H5))^2 +((9*$O$11*B5)/(1000*$O$8*$O$9))) - ($O$10/(2*H5)))^3 * ((B5-D5)/((I5/(F5/1000))*B5))</f>
+        <f t="shared" ref="J5:J68" si="0">0.75*PI()*$P$9*$P$8*(SQRT(($P$10/(2*H5))^2 +((9*$P$11*B5)/(1000*$P$8*$P$9))) - ($P$10/(2*H5)))^3 * ((B5-D5)/((I5/(F5/1000))*B5))</f>
         <v>-1.0858219261429304E-18</v>
       </c>
       <c r="K5" s="20">
         <f t="shared" ref="K5:K68" si="1">J5* ((1.5*(C5/B5)) + ((C5+E5)/(B5+D5))  + (C5/B5))</f>
         <v>-1.1564803245609245E-18</v>
       </c>
-      <c r="L5" s="14">
-        <f t="shared" ref="L5:L68" si="2">ROUND(J5/$O$13,0)</f>
+      <c r="L5" s="20"/>
+      <c r="M5" s="14">
+        <f t="shared" ref="M5:M68" si="2">ROUND(J5/$P$13,0)</f>
         <v>7</v>
       </c>
-      <c r="M5" s="14">
-        <f t="shared" ref="M5:M68" si="3">J5/L5</f>
+      <c r="N5" s="14">
+        <f t="shared" ref="N5:N68" si="3">J5/M5</f>
         <v>-1.5511741802041862E-19</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="13"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="13"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="T5" s="14"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -19582,23 +19614,24 @@
         <f t="shared" si="1"/>
         <v>-1.3277609452281763E-18</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="20"/>
+      <c r="M6" s="14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M6" s="14">
+      <c r="N6" s="14">
         <f t="shared" si="3"/>
         <v>-1.5582970980855039E-19</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="S6" s="13"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -19634,27 +19667,28 @@
         <f t="shared" si="1"/>
         <v>-2.7720017919410525E-18</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="20"/>
+      <c r="M7" s="14">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="M7" s="14">
+      <c r="N7" s="14">
         <f t="shared" si="3"/>
         <v>-1.5309638783622819E-19</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="P7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -19690,27 +19724,28 @@
         <f t="shared" si="1"/>
         <v>-9.720582814023819E-19</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="20"/>
+      <c r="M8" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M8" s="14">
+      <c r="N8" s="14">
         <f t="shared" si="3"/>
         <v>-1.5211127721177776E-19</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="13">
+      <c r="P8" s="13">
         <v>9.81</v>
       </c>
-      <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="21"/>
+      <c r="S8" s="13"/>
       <c r="T8" s="21"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" s="21"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -19746,27 +19781,28 @@
         <f t="shared" si="1"/>
         <v>-9.8680848642239651E-16</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="20"/>
+      <c r="M9" s="14">
         <f t="shared" si="2"/>
         <v>1465</v>
       </c>
-      <c r="M9" s="14">
+      <c r="N9" s="14">
         <f t="shared" si="3"/>
         <v>-1.5444219317584832E-19</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="O9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="13">
+      <c r="P9" s="13">
         <v>886</v>
       </c>
-      <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="13"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -19802,27 +19838,28 @@
         <f t="shared" si="1"/>
         <v>-2.7728492320763993E-15</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="20"/>
+      <c r="M10" s="14">
         <f t="shared" si="2"/>
         <v>4104</v>
       </c>
-      <c r="M10" s="14">
+      <c r="N10" s="14">
         <f t="shared" si="3"/>
         <v>-1.5446057589532479E-19</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="13">
+      <c r="P10" s="13">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="20">
         <v>8</v>
       </c>
@@ -19858,27 +19895,28 @@
         <f t="shared" si="1"/>
         <v>-1.8761360130639776E-15</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="20"/>
+      <c r="M11" s="14">
         <f t="shared" si="2"/>
         <v>2818</v>
       </c>
-      <c r="M11" s="14">
+      <c r="N11" s="14">
         <f t="shared" si="3"/>
         <v>-1.5447856944826277E-19</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="O11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="13">
+      <c r="P11" s="13">
         <v>1.8320000000000001E-5</v>
       </c>
-      <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="13"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="20">
         <v>9</v>
       </c>
@@ -19914,27 +19952,28 @@
         <f t="shared" si="1"/>
         <v>4.3038711214228299E-16</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="20"/>
+      <c r="M12" s="14">
         <f t="shared" si="2"/>
         <v>-542</v>
       </c>
-      <c r="M12" s="14">
+      <c r="N12" s="14">
         <f t="shared" si="3"/>
         <v>-1.543864035874368E-19</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="O12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="13">
+      <c r="P12" s="13">
         <v>1007</v>
       </c>
-      <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="13"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="20">
         <v>10</v>
       </c>
@@ -19970,25 +20009,26 @@
         <f t="shared" si="1"/>
         <v>-3.1132225719146493E-19</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="20"/>
+      <c r="M13" s="14">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M13" s="14">
+      <c r="N13" s="14">
         <f t="shared" si="3"/>
         <v>-1.6630083330668672E-19</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="9">
+      <c r="O13" s="14"/>
+      <c r="P13" s="9">
         <v>-1.5446290293821779E-19</v>
       </c>
-      <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="20">
         <v>11</v>
       </c>
@@ -20024,23 +20064,24 @@
         <f t="shared" si="1"/>
         <v>-7.5001410702858599E-19</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="20"/>
+      <c r="M14" s="14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M14" s="14">
+      <c r="N14" s="14">
         <f t="shared" si="3"/>
         <v>-1.5323936398179138E-19</v>
       </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="21"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="13"/>
+      <c r="Q14" s="21"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="13"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="20">
         <v>12</v>
       </c>
@@ -20076,23 +20117,24 @@
         <f t="shared" si="1"/>
         <v>-3.8736339289955099E-19</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="20"/>
+      <c r="M15" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M15" s="14">
+      <c r="N15" s="14">
         <f t="shared" si="3"/>
         <v>-1.5387721888442549E-19</v>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="13"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="13"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="20">
         <v>13</v>
       </c>
@@ -20128,23 +20170,24 @@
         <f t="shared" si="1"/>
         <v>1.0427588711999597E-19</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="20"/>
+      <c r="M16" s="14">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="M16" s="14">
+      <c r="N16" s="14">
         <f t="shared" si="3"/>
         <v>-1.709298870440474E-19</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="13"/>
+      <c r="O16" s="21"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="U16" s="13"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="20">
         <v>14</v>
       </c>
@@ -20180,16 +20223,17 @@
         <f t="shared" si="1"/>
         <v>-1.7776940403664908E-19</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="20"/>
+      <c r="M17" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M17" s="14">
+      <c r="N17" s="14">
         <f t="shared" si="3"/>
         <v>-1.4415092314569444E-19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="20">
         <v>15</v>
       </c>
@@ -20225,16 +20269,17 @@
         <f t="shared" si="1"/>
         <v>-2.7429955534525744E-20</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="20"/>
+      <c r="M18" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="14" t="e">
+      <c r="N18" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="20">
         <v>16</v>
       </c>
@@ -20270,16 +20315,17 @@
         <f t="shared" si="1"/>
         <v>2.9279300311613038E-19</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="20"/>
+      <c r="M19" s="14">
         <f t="shared" si="2"/>
         <v>-9</v>
       </c>
-      <c r="M19" s="14">
+      <c r="N19" s="14">
         <f t="shared" si="3"/>
         <v>-1.4854713571281389E-19</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="20">
         <v>17</v>
       </c>
@@ -20315,16 +20361,17 @@
         <f t="shared" si="1"/>
         <v>-7.1150815023717152E-20</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="20"/>
+      <c r="M20" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M20" s="14">
+      <c r="N20" s="14">
         <f t="shared" si="3"/>
         <v>-2.2782489848631849E-19</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="20">
         <v>18</v>
       </c>
@@ -20360,16 +20407,17 @@
         <f t="shared" si="1"/>
         <v>-1.7522242354634389E-19</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="20"/>
+      <c r="M21" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M21" s="14">
+      <c r="N21" s="14">
         <f t="shared" si="3"/>
         <v>-1.782258110554335E-19</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="20">
         <v>19</v>
       </c>
@@ -20405,16 +20453,17 @@
         <f t="shared" si="1"/>
         <v>-1.2859489350908654E-19</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="20"/>
+      <c r="M22" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M22" s="14">
+      <c r="N22" s="14">
         <f t="shared" si="3"/>
         <v>-1.538303284887624E-19</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="20">
         <v>20</v>
       </c>
@@ -20450,16 +20499,17 @@
         <f t="shared" si="1"/>
         <v>-5.3406815871725199E-18</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="20"/>
+      <c r="M23" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M23" s="14">
+      <c r="N23" s="14">
         <f t="shared" si="3"/>
         <v>-1.4171199530073395E-19</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="20">
         <v>21</v>
       </c>
@@ -20495,16 +20545,17 @@
         <f t="shared" si="1"/>
         <v>-2.5567166590137896E-18</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="20"/>
+      <c r="M24" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M24" s="14">
+      <c r="N24" s="14">
         <f t="shared" si="3"/>
         <v>-1.5971165002779087E-19</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="20">
         <v>22</v>
       </c>
@@ -20540,16 +20591,17 @@
         <f t="shared" si="1"/>
         <v>1.1723863522545535E-18</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="20"/>
+      <c r="M25" s="14">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="M25" s="14">
+      <c r="N25" s="14">
         <f t="shared" si="3"/>
         <v>-1.5330402503506954E-19</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="20">
         <v>23</v>
       </c>
@@ -20585,16 +20637,17 @@
         <f t="shared" si="1"/>
         <v>3.6738363656618228E-20</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="20"/>
+      <c r="M26" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M26" s="14" t="e">
+      <c r="N26" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="20">
         <v>24</v>
       </c>
@@ -20630,16 +20683,17 @@
         <f t="shared" si="1"/>
         <v>-3.4006711857289193E-19</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="20"/>
+      <c r="M27" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M27" s="14">
+      <c r="N27" s="14">
         <f t="shared" si="3"/>
         <v>-1.5435565445524098E-19</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -20675,16 +20729,17 @@
         <f t="shared" si="1"/>
         <v>7.0462014161716417E-20</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="20"/>
+      <c r="M28" s="14">
         <f t="shared" si="2"/>
         <v>-5685</v>
       </c>
-      <c r="M28" s="14">
+      <c r="N28" s="14">
         <f t="shared" si="3"/>
         <v>-1.5446660015668597E-19</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="20">
         <v>27</v>
       </c>
@@ -20720,16 +20775,17 @@
         <f t="shared" si="1"/>
         <v>1.0235736194274797E-19</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="20"/>
+      <c r="M29" s="14">
         <f t="shared" si="2"/>
         <v>-5093</v>
       </c>
-      <c r="M29" s="14">
+      <c r="N29" s="14">
         <f t="shared" si="3"/>
         <v>-1.5447530519207923E-19</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" s="20">
         <v>28</v>
       </c>
@@ -20765,16 +20821,17 @@
         <f t="shared" si="1"/>
         <v>6.4957703830292924E-20</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="20"/>
+      <c r="M30" s="14">
         <f t="shared" si="2"/>
         <v>-199</v>
       </c>
-      <c r="M30" s="14">
+      <c r="N30" s="14">
         <f t="shared" si="3"/>
         <v>-1.5413543980433451E-19</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="20">
         <v>29</v>
       </c>
@@ -20810,16 +20867,17 @@
         <f t="shared" si="1"/>
         <v>3.0742083688677712E-19</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="20"/>
+      <c r="M31" s="14">
         <f t="shared" si="2"/>
         <v>-926</v>
       </c>
-      <c r="M31" s="14">
+      <c r="N31" s="14">
         <f t="shared" si="3"/>
         <v>-1.5453003470168071E-19</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="20">
         <v>30</v>
       </c>
@@ -20855,16 +20913,17 @@
         <f t="shared" si="1"/>
         <v>5.8989708531958522E-19</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="20"/>
+      <c r="M32" s="14">
         <f t="shared" si="2"/>
         <v>-2895</v>
       </c>
-      <c r="M32" s="14">
+      <c r="N32" s="14">
         <f t="shared" si="3"/>
         <v>-1.5447353673297102E-19</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" s="20">
         <v>31</v>
       </c>
@@ -20896,19 +20955,21 @@
         <f t="shared" si="0"/>
         <v>5.2145334221726152E-16</v>
       </c>
-      <c r="K33" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="14">
+      <c r="K33" s="20">
+        <f t="shared" si="1"/>
+        <v>6.8302390628073127E-19</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="M33" s="14">
         <f t="shared" si="2"/>
         <v>-3376</v>
       </c>
-      <c r="M33" s="14">
+      <c r="N33" s="14">
         <f t="shared" si="3"/>
         <v>-1.5445892838189027E-19</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" s="20">
         <v>32</v>
       </c>
@@ -20944,16 +21005,17 @@
         <f t="shared" si="1"/>
         <v>-9.7619391158251001E-19</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="20"/>
+      <c r="M34" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M34" s="14">
+      <c r="N34" s="14">
         <f t="shared" si="3"/>
         <v>-1.471364736298276E-19</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="20">
         <v>33</v>
       </c>
@@ -20989,16 +21051,17 @@
         <f t="shared" si="1"/>
         <v>-8.9173620381713734E-19</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="20"/>
+      <c r="M35" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M35" s="14">
+      <c r="N35" s="14">
         <f t="shared" si="3"/>
         <v>-1.6720053821571322E-19</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" s="20">
         <v>34</v>
       </c>
@@ -21034,16 +21097,17 @@
         <f t="shared" si="1"/>
         <v>-1.2918644189761835E-18</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="20"/>
+      <c r="M36" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M36" s="14">
+      <c r="N36" s="14">
         <f t="shared" si="3"/>
         <v>-1.6690754767134153E-19</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14">
       <c r="A37" s="20">
         <v>35</v>
       </c>
@@ -21079,16 +21143,17 @@
         <f t="shared" si="1"/>
         <v>-9.7619391158251001E-19</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="20"/>
+      <c r="M37" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M37" s="14">
+      <c r="N37" s="14">
         <f t="shared" si="3"/>
         <v>-1.471364736298276E-19</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" s="20">
         <v>36</v>
       </c>
@@ -21124,16 +21189,17 @@
         <f t="shared" si="1"/>
         <v>-1.0183751299842234E-18</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="20"/>
+      <c r="M38" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M38" s="14">
+      <c r="N38" s="14">
         <f t="shared" si="3"/>
         <v>-1.5382449515845614E-19</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="20">
         <v>37</v>
       </c>
@@ -21169,16 +21235,17 @@
         <f t="shared" si="1"/>
         <v>-9.7619391158251001E-19</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="20"/>
+      <c r="M39" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M39" s="14">
+      <c r="N39" s="14">
         <f t="shared" si="3"/>
         <v>-1.471364736298276E-19</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" s="20">
         <v>38</v>
       </c>
@@ -21214,16 +21281,17 @@
         <f t="shared" si="1"/>
         <v>-8.9173620381713734E-19</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="20"/>
+      <c r="M40" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M40" s="14">
+      <c r="N40" s="14">
         <f t="shared" si="3"/>
         <v>-1.6720053821571322E-19</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="A41" s="20">
         <v>39</v>
       </c>
@@ -21259,16 +21327,17 @@
         <f t="shared" si="1"/>
         <v>-9.7619391158251001E-19</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="20"/>
+      <c r="M41" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M41" s="14">
+      <c r="N41" s="14">
         <f t="shared" si="3"/>
         <v>-1.471364736298276E-19</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="A42" s="20">
         <v>40</v>
       </c>
@@ -21304,16 +21373,17 @@
         <f t="shared" si="1"/>
         <v>-8.9173620381713734E-19</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="20"/>
+      <c r="M42" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M42" s="14">
+      <c r="N42" s="14">
         <f t="shared" si="3"/>
         <v>-1.6720053821571322E-19</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14">
       <c r="A43" s="20">
         <v>41</v>
       </c>
@@ -21349,16 +21419,17 @@
         <f t="shared" si="1"/>
         <v>-8.9173620381713734E-19</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="20"/>
+      <c r="M43" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M43" s="14">
+      <c r="N43" s="14">
         <f t="shared" si="3"/>
         <v>-1.6720053821571322E-19</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" s="20">
         <v>42</v>
       </c>
@@ -21394,16 +21465,17 @@
         <f t="shared" si="1"/>
         <v>-9.7619391158251001E-19</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="20"/>
+      <c r="M44" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M44" s="14">
+      <c r="N44" s="14">
         <f t="shared" si="3"/>
         <v>-1.471364736298276E-19</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" s="20">
         <v>43</v>
       </c>
@@ -21439,16 +21511,17 @@
         <f t="shared" si="1"/>
         <v>-8.9173620381713734E-19</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="20"/>
+      <c r="M45" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M45" s="14">
+      <c r="N45" s="14">
         <f t="shared" si="3"/>
         <v>-1.6720053821571322E-19</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="20">
         <v>44</v>
       </c>
@@ -21484,16 +21557,17 @@
         <f t="shared" si="1"/>
         <v>-1.2918644189761835E-18</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="20"/>
+      <c r="M46" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M46" s="14">
+      <c r="N46" s="14">
         <f t="shared" si="3"/>
         <v>-1.6690754767134153E-19</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="20">
         <v>45</v>
       </c>
@@ -21529,16 +21603,17 @@
         <f t="shared" si="1"/>
         <v>-9.3398220647297407E-19</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="20"/>
+      <c r="M47" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M47" s="14">
+      <c r="N47" s="14">
         <f t="shared" si="3"/>
         <v>-1.4044845210119909E-19</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" s="20">
         <v>46</v>
       </c>
@@ -21574,16 +21649,17 @@
         <f t="shared" si="1"/>
         <v>-1.1827087758904038E-18</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="20"/>
+      <c r="M48" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M48" s="14">
+      <c r="N48" s="14">
         <f t="shared" si="3"/>
         <v>-1.5239384787383355E-19</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="20">
         <v>47</v>
       </c>
@@ -21619,16 +21695,17 @@
         <f t="shared" si="1"/>
         <v>-9.7619391158251001E-19</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L49" s="20"/>
+      <c r="M49" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M49" s="14">
+      <c r="N49" s="14">
         <f t="shared" si="3"/>
         <v>-1.471364736298276E-19</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" s="20">
         <v>48</v>
       </c>
@@ -21664,16 +21741,17 @@
         <f t="shared" si="1"/>
         <v>-9.3398220647297407E-19</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="20"/>
+      <c r="M50" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M50" s="14">
+      <c r="N50" s="14">
         <f t="shared" si="3"/>
         <v>-1.4044845210119909E-19</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="20">
         <v>49</v>
       </c>
@@ -21709,16 +21787,17 @@
         <f t="shared" si="1"/>
         <v>-9.7619391158251001E-19</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="20"/>
+      <c r="M51" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M51" s="14">
+      <c r="N51" s="14">
         <f t="shared" si="3"/>
         <v>-1.471364736298276E-19</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="20">
         <v>50</v>
       </c>
@@ -21754,16 +21833,17 @@
         <f t="shared" si="1"/>
         <v>-1.2918644189761835E-18</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="20"/>
+      <c r="M52" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M52" s="14">
+      <c r="N52" s="14">
         <f t="shared" si="3"/>
         <v>-1.6690754767134153E-19</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="20">
         <v>51</v>
       </c>
@@ -21799,16 +21879,17 @@
         <f t="shared" si="1"/>
         <v>-1.2918644189761835E-18</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L53" s="20"/>
+      <c r="M53" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M53" s="14">
+      <c r="N53" s="14">
         <f t="shared" si="3"/>
         <v>-1.6690754767134153E-19</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="20">
         <v>52</v>
       </c>
@@ -21844,16 +21925,17 @@
         <f t="shared" si="1"/>
         <v>-1.1827087758904038E-18</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L54" s="20"/>
+      <c r="M54" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M54" s="14">
+      <c r="N54" s="14">
         <f t="shared" si="3"/>
         <v>-1.5239384787383355E-19</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="20">
         <v>53</v>
       </c>
@@ -21889,16 +21971,17 @@
         <f t="shared" si="1"/>
         <v>-1.3845639092940161E-19</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L55" s="20"/>
+      <c r="M55" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M55" s="14">
+      <c r="N55" s="14">
         <f t="shared" si="3"/>
         <v>-1.5820279751768047E-19</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="20">
         <v>54</v>
       </c>
@@ -21934,16 +22017,17 @@
         <f t="shared" si="1"/>
         <v>-1.7077212446085972E-19</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="20"/>
+      <c r="M56" s="14">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M56" s="14">
+      <c r="N56" s="14">
         <f t="shared" si="3"/>
         <v>-1.5404216684705154E-19</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="20">
         <v>55</v>
       </c>
@@ -21979,16 +22063,17 @@
         <f t="shared" si="1"/>
         <v>-2.3125785726061814E-20</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L57" s="20"/>
+      <c r="M57" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M57" s="14">
+      <c r="N57" s="14">
         <f t="shared" si="3"/>
         <v>-2.2801897607082058E-19</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="20">
         <v>56</v>
       </c>
@@ -22024,16 +22109,17 @@
         <f t="shared" si="1"/>
         <v>-5.1189827213542047E-20</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="20"/>
+      <c r="M58" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M58" s="14">
+      <c r="N58" s="14">
         <f t="shared" si="3"/>
         <v>-1.355453149944115E-19</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="20">
         <v>57</v>
       </c>
@@ -22069,16 +22155,17 @@
         <f t="shared" si="1"/>
         <v>8.311409916959088E-30</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="20"/>
+      <c r="M59" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M59" s="14" t="e">
+      <c r="N59" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="20">
         <v>58</v>
       </c>
@@ -22114,16 +22201,17 @@
         <f t="shared" si="1"/>
         <v>3.2951232445240613E-30</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="20"/>
+      <c r="M60" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M60" s="14" t="e">
+      <c r="N60" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" s="20">
         <v>59</v>
       </c>
@@ -22159,16 +22247,17 @@
         <f t="shared" si="1"/>
         <v>9.2580523671088475E-29</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="20"/>
+      <c r="M61" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M61" s="14" t="e">
+      <c r="N61" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="20">
         <v>60</v>
       </c>
@@ -22204,16 +22293,17 @@
         <f t="shared" si="1"/>
         <v>6.8228461213493068E-28</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L62" s="20"/>
+      <c r="M62" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M62" s="14" t="e">
+      <c r="N62" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="20">
         <v>61</v>
       </c>
@@ -22249,16 +22339,17 @@
         <f t="shared" si="1"/>
         <v>4.2033936976222775E-27</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L63" s="20"/>
+      <c r="M63" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M63" s="14" t="e">
+      <c r="N63" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" s="20">
         <v>62</v>
       </c>
@@ -22294,16 +22385,17 @@
         <f t="shared" si="1"/>
         <v>-2.5149345139998924E-30</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="20"/>
+      <c r="M64" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M64" s="14" t="e">
+      <c r="N64" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:14">
       <c r="A65" s="20">
         <v>63</v>
       </c>
@@ -22339,16 +22431,17 @@
         <f t="shared" si="1"/>
         <v>2.9245311523438192E-30</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="20"/>
+      <c r="M65" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M65" s="14" t="e">
+      <c r="N65" s="14" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:14">
       <c r="A66" s="20">
         <v>64</v>
       </c>
@@ -22384,16 +22477,17 @@
         <f t="shared" si="1"/>
         <v>-3.0299166374793077E-19</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="20"/>
+      <c r="M66" s="14">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M66" s="14">
+      <c r="N66" s="14">
         <f t="shared" si="3"/>
         <v>-1.4223977051271377E-19</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:14">
       <c r="A67" s="20">
         <v>65</v>
       </c>
@@ -22429,16 +22523,17 @@
         <f t="shared" si="1"/>
         <v>-1.1564803245609245E-18</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="20"/>
+      <c r="M67" s="14">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M67" s="14">
+      <c r="N67" s="14">
         <f t="shared" si="3"/>
         <v>-1.5511741802041862E-19</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:14">
       <c r="A68" s="20">
         <v>66</v>
       </c>
@@ -22474,16 +22569,17 @@
         <f t="shared" si="1"/>
         <v>-1.3277609452281763E-18</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="20"/>
+      <c r="M68" s="14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M68" s="14">
+      <c r="N68" s="14">
         <f t="shared" si="3"/>
         <v>-1.5582970980855039E-19</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:14">
       <c r="A69" s="20">
         <v>67</v>
       </c>
@@ -22512,23 +22608,24 @@
         <v>502</v>
       </c>
       <c r="J69" s="20">
-        <f t="shared" ref="J69:J132" si="4">0.75*PI()*$O$9*$O$8*(SQRT(($O$10/(2*H69))^2 +((9*$O$11*B69)/(1000*$O$8*$O$9))) - ($O$10/(2*H69)))^3 * ((B69-D69)/((I69/(F69/1000))*B69))</f>
+        <f t="shared" ref="J69:J132" si="4">0.75*PI()*$P$9*$P$8*(SQRT(($P$10/(2*H69))^2 +((9*$P$11*B69)/(1000*$P$8*$P$9))) - ($P$10/(2*H69)))^3 * ((B69-D69)/((I69/(F69/1000))*B69))</f>
         <v>-2.6026385932158794E-18</v>
       </c>
       <c r="K69" s="20">
         <f t="shared" ref="K69:K132" si="5">J69* ((1.5*(C69/B69)) + ((C69+E69)/(B69+D69))  + (C69/B69))</f>
         <v>-2.7720017919410525E-18</v>
       </c>
-      <c r="L69" s="14">
-        <f t="shared" ref="L69:L132" si="6">ROUND(J69/$O$13,0)</f>
+      <c r="L69" s="20"/>
+      <c r="M69" s="14">
+        <f t="shared" ref="M69:M132" si="6">ROUND(J69/$P$13,0)</f>
         <v>17</v>
       </c>
-      <c r="M69" s="14">
-        <f t="shared" ref="M69:M132" si="7">J69/L69</f>
+      <c r="N69" s="14">
+        <f t="shared" ref="N69:N132" si="7">J69/M69</f>
         <v>-1.5309638783622819E-19</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:14">
       <c r="A70" s="20">
         <v>68</v>
       </c>
@@ -22564,16 +22661,17 @@
         <f t="shared" si="5"/>
         <v>-9.720582814023819E-19</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="20"/>
+      <c r="M70" s="14">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="M70" s="14">
+      <c r="N70" s="14">
         <f t="shared" si="7"/>
         <v>-1.5211127721177776E-19</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:14">
       <c r="A71" s="20">
         <v>69</v>
       </c>
@@ -22609,16 +22707,17 @@
         <f t="shared" si="5"/>
         <v>-3.702632718222258E-19</v>
       </c>
-      <c r="L71" s="14">
+      <c r="L71" s="20"/>
+      <c r="M71" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M71" s="14">
+      <c r="N71" s="14">
         <f t="shared" si="7"/>
         <v>-1.2449237482152184E-19</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:14">
       <c r="A72" s="20">
         <v>70</v>
       </c>
@@ -22654,16 +22753,17 @@
         <f t="shared" si="5"/>
         <v>-4.7104532461042638E-19</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="20"/>
+      <c r="M72" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M72" s="14">
+      <c r="N72" s="14">
         <f t="shared" si="7"/>
         <v>-1.5895919320810542E-19</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:14">
       <c r="A73" s="20">
         <v>71</v>
       </c>
@@ -22699,16 +22799,17 @@
         <f t="shared" si="5"/>
         <v>-6.5367513115509458E-19</v>
       </c>
-      <c r="L73" s="14">
+      <c r="L73" s="20"/>
+      <c r="M73" s="14">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M73" s="14">
+      <c r="N73" s="14">
         <f t="shared" si="7"/>
         <v>-1.478408034305741E-19</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:14">
       <c r="A74" s="20">
         <v>72</v>
       </c>
@@ -22744,16 +22845,17 @@
         <f t="shared" si="5"/>
         <v>-8.6198442322080623E-19</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L74" s="20"/>
+      <c r="M74" s="14">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M74" s="14">
+      <c r="N74" s="14">
         <f t="shared" si="7"/>
         <v>-1.45744361903423E-19</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14">
       <c r="A75" s="20">
         <v>73</v>
       </c>
@@ -22789,16 +22891,17 @@
         <f t="shared" si="5"/>
         <v>-1.1891422339195874E-18</v>
       </c>
-      <c r="L75" s="14">
+      <c r="L75" s="20"/>
+      <c r="M75" s="14">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="M75" s="14">
+      <c r="N75" s="14">
         <f t="shared" si="7"/>
         <v>-1.6193370355627837E-19</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:14">
       <c r="A76" s="20">
         <v>74</v>
       </c>
@@ -22834,16 +22937,17 @@
         <f t="shared" si="5"/>
         <v>-5.4205775081055728E-19</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L76" s="20"/>
+      <c r="M76" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M76" s="14">
+      <c r="N76" s="14">
         <f t="shared" si="7"/>
         <v>-1.8377773607273197E-19</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:14">
       <c r="A77" s="20">
         <v>75</v>
       </c>
@@ -22879,16 +22983,17 @@
         <f t="shared" si="5"/>
         <v>-1.6478078163636976E-18</v>
       </c>
-      <c r="L77" s="14">
+      <c r="L77" s="20"/>
+      <c r="M77" s="14">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M77" s="14">
+      <c r="N77" s="14">
         <f t="shared" si="7"/>
         <v>-1.5954237996401921E-19</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:14">
       <c r="A78" s="20">
         <v>76</v>
       </c>
@@ -22924,16 +23029,17 @@
         <f t="shared" si="5"/>
         <v>-6.6451440775268937E-19</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L78" s="20"/>
+      <c r="M78" s="14">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M78" s="14">
+      <c r="N78" s="14">
         <f t="shared" si="7"/>
         <v>-1.5040069973041287E-19</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:14">
       <c r="A79" s="20">
         <v>77</v>
       </c>
@@ -22969,16 +23075,17 @@
         <f t="shared" si="5"/>
         <v>-7.6022373744698253E-19</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L79" s="20"/>
+      <c r="M79" s="14">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M79" s="14">
+      <c r="N79" s="14">
         <f t="shared" si="7"/>
         <v>-1.7121059341597112E-19</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:14">
       <c r="A80" s="20">
         <v>78</v>
       </c>
@@ -23014,16 +23121,17 @@
         <f t="shared" si="5"/>
         <v>-1.921724407056598E-18</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L80" s="20"/>
+      <c r="M80" s="14">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="M80" s="14">
+      <c r="N80" s="14">
         <f t="shared" si="7"/>
         <v>-1.4590664837225154E-19</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:14">
       <c r="A81" s="20">
         <v>79</v>
       </c>
@@ -23059,16 +23167,17 @@
         <f t="shared" si="5"/>
         <v>-2.6325470622635496E-18</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L81" s="20"/>
+      <c r="M81" s="14">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="M81" s="14">
+      <c r="N81" s="14">
         <f t="shared" si="7"/>
         <v>-1.5822821231213795E-19</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:14">
       <c r="A82" s="20">
         <v>80</v>
       </c>
@@ -23104,16 +23213,17 @@
         <f t="shared" si="5"/>
         <v>-4.3918066656437299E-19</v>
       </c>
-      <c r="L82" s="14">
+      <c r="L82" s="20"/>
+      <c r="M82" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M82" s="14">
+      <c r="N82" s="14">
         <f t="shared" si="7"/>
         <v>-1.4858855732344213E-19</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:14">
       <c r="A83" s="20">
         <v>81</v>
       </c>
@@ -23149,16 +23259,17 @@
         <f t="shared" si="5"/>
         <v>-1.6586124845516393E-18</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L83" s="20"/>
+      <c r="M83" s="14">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M83" s="14">
+      <c r="N83" s="14">
         <f t="shared" si="7"/>
         <v>-1.6116522579771035E-19</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:14">
       <c r="A84" s="20">
         <v>82</v>
       </c>
@@ -23190,16 +23301,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L84" s="14">
+      <c r="L84" s="20"/>
+      <c r="M84" s="14">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="M84" s="14">
+      <c r="N84" s="14">
         <f t="shared" si="7"/>
         <v>-1.539903370571599E-19</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:14">
       <c r="A85" s="20">
         <v>83</v>
       </c>
@@ -23231,16 +23343,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L85" s="14">
+      <c r="L85" s="20"/>
+      <c r="M85" s="14">
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="M85" s="14">
+      <c r="N85" s="14">
         <f t="shared" si="7"/>
         <v>-1.5437027735883348E-19</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:14">
       <c r="A86" s="20">
         <v>84</v>
       </c>
@@ -23272,16 +23385,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L86" s="14">
+      <c r="L86" s="20"/>
+      <c r="M86" s="14">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="M86" s="14">
+      <c r="N86" s="14">
         <f t="shared" si="7"/>
         <v>-1.5583676868775979E-19</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:14">
       <c r="A87" s="20">
         <v>85</v>
       </c>
@@ -23313,16 +23427,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L87" s="14">
+      <c r="L87" s="20"/>
+      <c r="M87" s="14">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="M87" s="14">
+      <c r="N87" s="14">
         <f t="shared" si="7"/>
         <v>-1.5443522218080073E-19</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:14">
       <c r="A88" s="20">
         <v>86</v>
       </c>
@@ -23354,16 +23469,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L88" s="20"/>
+      <c r="M88" s="14">
         <f t="shared" si="6"/>
         <v>161</v>
       </c>
-      <c r="M88" s="14">
+      <c r="N88" s="14">
         <f t="shared" si="7"/>
         <v>-1.548932512721559E-19</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:14">
       <c r="A89" s="20">
         <v>87</v>
       </c>
@@ -23395,16 +23511,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L89" s="14">
+      <c r="L89" s="20"/>
+      <c r="M89" s="14">
         <f t="shared" si="6"/>
         <v>129</v>
       </c>
-      <c r="M89" s="14">
+      <c r="N89" s="14">
         <f t="shared" si="7"/>
         <v>-1.5458999718691452E-19</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:14">
       <c r="A90" s="20">
         <v>88</v>
       </c>
@@ -23436,16 +23553,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L90" s="14">
+      <c r="L90" s="20"/>
+      <c r="M90" s="14">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="M90" s="14">
+      <c r="N90" s="14">
         <f t="shared" si="7"/>
         <v>-1.5315589825732213E-19</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:14">
       <c r="A91" s="20">
         <v>89</v>
       </c>
@@ -23477,16 +23595,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L91" s="14">
+      <c r="L91" s="20"/>
+      <c r="M91" s="14">
         <f t="shared" si="6"/>
         <v>220</v>
       </c>
-      <c r="M91" s="14">
+      <c r="N91" s="14">
         <f t="shared" si="7"/>
         <v>-1.5464488814333006E-19</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:14">
       <c r="A92" s="20">
         <v>90</v>
       </c>
@@ -23518,16 +23637,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L92" s="14">
+      <c r="L92" s="20"/>
+      <c r="M92" s="14">
         <f t="shared" si="6"/>
         <v>145</v>
       </c>
-      <c r="M92" s="14">
+      <c r="N92" s="14">
         <f t="shared" si="7"/>
         <v>-1.5415122248289555E-19</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:14">
       <c r="A93" s="20">
         <v>91</v>
       </c>
@@ -23559,16 +23679,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L93" s="14">
+      <c r="L93" s="20"/>
+      <c r="M93" s="14">
         <f t="shared" si="6"/>
         <v>257</v>
       </c>
-      <c r="M93" s="14">
+      <c r="N93" s="14">
         <f t="shared" si="7"/>
         <v>-1.5444645339824015E-19</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:14">
       <c r="A94" s="20">
         <v>92</v>
       </c>
@@ -23604,16 +23725,17 @@
         <f t="shared" si="5"/>
         <v>-4.4913346174675266E-19</v>
       </c>
-      <c r="L94" s="14">
+      <c r="L94" s="20"/>
+      <c r="M94" s="14">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="M94" s="14">
+      <c r="N94" s="14">
         <f t="shared" si="7"/>
         <v>-1.5517281945950545E-19</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:14">
       <c r="A95" s="20">
         <v>93</v>
       </c>
@@ -23649,16 +23771,17 @@
         <f t="shared" si="5"/>
         <v>-1.8050898852562826E-19</v>
       </c>
-      <c r="L95" s="14">
+      <c r="L95" s="20"/>
+      <c r="M95" s="14">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="M95" s="14">
+      <c r="N95" s="14">
         <f t="shared" si="7"/>
         <v>-1.4057955087827435E-19</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:14">
       <c r="A96" s="20">
         <v>94</v>
       </c>
@@ -23694,16 +23817,17 @@
         <f t="shared" si="5"/>
         <v>-1.8065970066834239E-19</v>
       </c>
-      <c r="L96" s="14">
+      <c r="L96" s="20"/>
+      <c r="M96" s="14">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="M96" s="14">
+      <c r="N96" s="14">
         <f t="shared" si="7"/>
         <v>-1.4146516199097146E-19</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:14">
       <c r="A97" s="20">
         <v>95</v>
       </c>
@@ -23739,16 +23863,17 @@
         <f t="shared" si="5"/>
         <v>-7.2354538816817125E-19</v>
       </c>
-      <c r="L97" s="14">
+      <c r="L97" s="20"/>
+      <c r="M97" s="14">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="M97" s="14">
+      <c r="N97" s="14">
         <f t="shared" si="7"/>
         <v>-1.5453800903113549E-19</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:14">
       <c r="A98" s="20">
         <v>96</v>
       </c>
@@ -23784,16 +23909,17 @@
         <f t="shared" si="5"/>
         <v>-2.8868123655810605E-19</v>
       </c>
-      <c r="L98" s="14">
+      <c r="L98" s="20"/>
+      <c r="M98" s="14">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="M98" s="14">
+      <c r="N98" s="14">
         <f t="shared" si="7"/>
         <v>-1.6208689858829015E-19</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:14">
       <c r="A99" s="20">
         <v>97</v>
       </c>
@@ -23829,16 +23955,17 @@
         <f t="shared" si="5"/>
         <v>-1.5309800284372769E-19</v>
       </c>
-      <c r="L99" s="14">
+      <c r="L99" s="20"/>
+      <c r="M99" s="14">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M99" s="14">
+      <c r="N99" s="14">
         <f t="shared" si="7"/>
         <v>-1.4385027881800694E-19</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:14">
       <c r="A100" s="20">
         <v>98</v>
       </c>
@@ -23874,16 +24001,17 @@
         <f t="shared" si="5"/>
         <v>-8.9524258682849023E-21</v>
       </c>
-      <c r="L100" s="14">
+      <c r="L100" s="20"/>
+      <c r="M100" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M100" s="14" t="e">
+      <c r="N100" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:14">
       <c r="A101" s="20">
         <v>99</v>
       </c>
@@ -23919,16 +24047,17 @@
         <f t="shared" si="5"/>
         <v>-1.1164080409590659E-20</v>
       </c>
-      <c r="L101" s="14">
+      <c r="L101" s="20"/>
+      <c r="M101" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M101" s="14" t="e">
+      <c r="N101" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:14">
       <c r="A102" s="20">
         <v>101</v>
       </c>
@@ -23964,16 +24093,17 @@
         <f t="shared" si="5"/>
         <v>-3.8992388516474114E-20</v>
       </c>
-      <c r="L102" s="14">
+      <c r="L102" s="20"/>
+      <c r="M102" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M102" s="14">
+      <c r="N102" s="14">
         <f t="shared" si="7"/>
         <v>-1.0984131219523785E-19</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:14">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -24009,16 +24139,17 @@
         <f t="shared" si="5"/>
         <v>-1.0710780535566676E-20</v>
       </c>
-      <c r="L103" s="14">
+      <c r="L103" s="20"/>
+      <c r="M103" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M103" s="14" t="e">
+      <c r="N103" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:14">
       <c r="A104" s="20">
         <v>103</v>
       </c>
@@ -24054,16 +24185,17 @@
         <f t="shared" si="5"/>
         <v>-4.9369729676828207E-21</v>
       </c>
-      <c r="L104" s="14">
+      <c r="L104" s="20"/>
+      <c r="M104" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M104" s="14" t="e">
+      <c r="N104" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:14">
       <c r="A105" s="20">
         <v>104</v>
       </c>
@@ -24099,16 +24231,17 @@
         <f t="shared" si="5"/>
         <v>-1.5365408774468708E-19</v>
       </c>
-      <c r="L105" s="14">
+      <c r="L105" s="20"/>
+      <c r="M105" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M105" s="14">
+      <c r="N105" s="14">
         <f t="shared" si="7"/>
         <v>-2.1867665152213124E-19</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:14">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -24144,16 +24277,17 @@
         <f t="shared" si="5"/>
         <v>1.8291535791794827E-20</v>
       </c>
-      <c r="L106" s="14">
+      <c r="L106" s="20"/>
+      <c r="M106" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M106" s="14" t="e">
+      <c r="N106" s="14" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:14">
       <c r="A107" s="20">
         <v>106</v>
       </c>
@@ -24189,16 +24323,17 @@
         <f t="shared" si="5"/>
         <v>-1.0543603647934526E-19</v>
       </c>
-      <c r="L107" s="14">
+      <c r="L107" s="20"/>
+      <c r="M107" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M107" s="14">
+      <c r="N107" s="14">
         <f t="shared" si="7"/>
         <v>-1.2480453545243678E-19</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:14">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -24234,16 +24369,17 @@
         <f t="shared" si="5"/>
         <v>-1.5737058611173985E-19</v>
       </c>
-      <c r="L108" s="14">
+      <c r="L108" s="20"/>
+      <c r="M108" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M108" s="14">
+      <c r="N108" s="14">
         <f t="shared" si="7"/>
         <v>-1.8984411103635405E-19</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:14">
       <c r="A109" s="20">
         <v>108</v>
       </c>
@@ -24279,16 +24415,17 @@
         <f t="shared" si="5"/>
         <v>-9.191123287068858E-19</v>
       </c>
-      <c r="L109" s="14">
+      <c r="L109" s="20"/>
+      <c r="M109" s="14">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="M109" s="14">
+      <c r="N109" s="14">
         <f t="shared" si="7"/>
         <v>-1.6562292214694041E-19</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:14">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -24324,16 +24461,17 @@
         <f t="shared" si="5"/>
         <v>-7.1486825269220012E-18</v>
       </c>
-      <c r="L110" s="14">
+      <c r="L110" s="20"/>
+      <c r="M110" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M110" s="14">
+      <c r="N110" s="14">
         <f t="shared" si="7"/>
         <v>-1.5421367903789656E-19</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:14">
       <c r="A111" s="20">
         <v>110</v>
       </c>
@@ -24369,16 +24507,17 @@
         <f t="shared" si="5"/>
         <v>-8.9616766984035688E-18</v>
       </c>
-      <c r="L111" s="14">
+      <c r="L111" s="20"/>
+      <c r="M111" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M111" s="14">
+      <c r="N111" s="14">
         <f t="shared" si="7"/>
         <v>-1.4119003732667153E-19</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:14">
       <c r="A112" s="20">
         <v>111</v>
       </c>
@@ -24414,16 +24553,17 @@
         <f t="shared" si="5"/>
         <v>-7.1497185427737154E-18</v>
       </c>
-      <c r="L112" s="14">
+      <c r="L112" s="20"/>
+      <c r="M112" s="14">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="M112" s="14">
+      <c r="N112" s="14">
         <f t="shared" si="7"/>
         <v>-1.6545018471986594E-19</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:14">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -24459,16 +24599,17 @@
         <f t="shared" si="5"/>
         <v>-1.2102526679676613E-17</v>
       </c>
-      <c r="L113" s="14">
+      <c r="L113" s="20"/>
+      <c r="M113" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M113" s="14">
+      <c r="N113" s="14">
         <f t="shared" si="7"/>
         <v>-1.9273965093439025E-19</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:14">
       <c r="A114" s="20">
         <v>113</v>
       </c>
@@ -24504,16 +24645,17 @@
         <f t="shared" si="5"/>
         <v>-1.2258961003192572E-19</v>
       </c>
-      <c r="L114" s="14">
+      <c r="L114" s="20"/>
+      <c r="M114" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M114" s="14">
+      <c r="N114" s="14">
         <f t="shared" si="7"/>
         <v>-1.4971779032118018E-19</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:14">
       <c r="A115" s="20">
         <v>114</v>
       </c>
@@ -24549,16 +24691,17 @@
         <f t="shared" si="5"/>
         <v>-3.5248181874891084E-19</v>
       </c>
-      <c r="L115" s="14">
+      <c r="L115" s="20"/>
+      <c r="M115" s="14">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M115" s="14">
+      <c r="N115" s="14">
         <f t="shared" si="7"/>
         <v>-1.3556681959022096E-19</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:14">
       <c r="A116" s="20">
         <v>115</v>
       </c>
@@ -24594,16 +24737,17 @@
         <f t="shared" si="5"/>
         <v>-5.3448679659846178E-19</v>
       </c>
-      <c r="L116" s="14">
+      <c r="L116" s="20"/>
+      <c r="M116" s="14">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="M116" s="14">
+      <c r="N116" s="14">
         <f t="shared" si="7"/>
         <v>-1.4618749627784497E-19</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:14">
       <c r="A117" s="20">
         <v>116</v>
       </c>
@@ -24639,16 +24783,17 @@
         <f t="shared" si="5"/>
         <v>-9.8606213384217269E-19</v>
       </c>
-      <c r="L117" s="14">
+      <c r="L117" s="20"/>
+      <c r="M117" s="14">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="M117" s="14">
+      <c r="N117" s="14">
         <f t="shared" si="7"/>
         <v>-1.5839102558825229E-19</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:14">
       <c r="A118" s="20">
         <v>117</v>
       </c>
@@ -24684,16 +24829,17 @@
         <f t="shared" si="5"/>
         <v>-9.013153966151576E-19</v>
       </c>
-      <c r="L118" s="14">
+      <c r="L118" s="20"/>
+      <c r="M118" s="14">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="M118" s="14">
+      <c r="N118" s="14">
         <f t="shared" si="7"/>
         <v>-1.5836745990754256E-19</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:14">
       <c r="A119" s="20">
         <v>118</v>
       </c>
@@ -24729,16 +24875,17 @@
         <f t="shared" si="5"/>
         <v>-3.2089076957219792E-19</v>
       </c>
-      <c r="L119" s="14">
+      <c r="L119" s="20"/>
+      <c r="M119" s="14">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M119" s="14">
+      <c r="N119" s="14">
         <f t="shared" si="7"/>
         <v>-1.6920203123490921E-19</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:14">
       <c r="A120" s="20">
         <v>119</v>
       </c>
@@ -24774,16 +24921,17 @@
         <f t="shared" si="5"/>
         <v>-4.5812542879656032E-19</v>
       </c>
-      <c r="L120" s="14">
+      <c r="L120" s="20"/>
+      <c r="M120" s="14">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M120" s="14">
+      <c r="N120" s="14">
         <f t="shared" si="7"/>
         <v>-1.6434863362553982E-19</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:14">
       <c r="A121" s="20">
         <v>120</v>
       </c>
@@ -24819,16 +24967,17 @@
         <f t="shared" si="5"/>
         <v>-4.0130239570486513E-19</v>
       </c>
-      <c r="L121" s="14">
+      <c r="L121" s="20"/>
+      <c r="M121" s="14">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M121" s="14">
+      <c r="N121" s="14">
         <f t="shared" si="7"/>
         <v>-1.4695513801934131E-19</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:14">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -24864,16 +25013,17 @@
         <f t="shared" si="5"/>
         <v>-4.3583496802276919E-19</v>
       </c>
-      <c r="L122" s="14">
+      <c r="L122" s="20"/>
+      <c r="M122" s="14">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M122" s="14">
+      <c r="N122" s="14">
         <f t="shared" si="7"/>
         <v>-1.439368527135806E-19</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:14">
       <c r="A123" s="20">
         <v>122</v>
       </c>
@@ -24909,16 +25059,17 @@
         <f t="shared" si="5"/>
         <v>-1.2114971616356E-18</v>
       </c>
-      <c r="L123" s="14">
+      <c r="L123" s="20"/>
+      <c r="M123" s="14">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M123" s="14">
+      <c r="N123" s="14">
         <f t="shared" si="7"/>
         <v>-1.5128203141137044E-19</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:14">
       <c r="A124" s="20">
         <v>123</v>
       </c>
@@ -24954,16 +25105,17 @@
         <f t="shared" si="5"/>
         <v>-3.1257872652565118E-18</v>
       </c>
-      <c r="L124" s="14">
+      <c r="L124" s="20"/>
+      <c r="M124" s="14">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="M124" s="14">
+      <c r="N124" s="14">
         <f t="shared" si="7"/>
         <v>-1.5507987280187084E-19</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:14">
       <c r="A125" s="20">
         <v>124</v>
       </c>
@@ -24999,16 +25151,17 @@
         <f t="shared" si="5"/>
         <v>-1.1830156275945012E-18</v>
       </c>
-      <c r="L125" s="14">
+      <c r="L125" s="20"/>
+      <c r="M125" s="14">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M125" s="14">
+      <c r="N125" s="14">
         <f t="shared" si="7"/>
         <v>-1.7873626779679308E-19</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:14">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -25044,16 +25197,17 @@
         <f t="shared" si="5"/>
         <v>-5.6834728174765382E-19</v>
       </c>
-      <c r="L126" s="14">
+      <c r="L126" s="20"/>
+      <c r="M126" s="14">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M126" s="14">
+      <c r="N126" s="14">
         <f t="shared" si="7"/>
         <v>-1.7822788518796979E-19</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:14">
       <c r="A127" s="20">
         <v>126</v>
       </c>
@@ -25089,16 +25243,17 @@
         <f t="shared" si="5"/>
         <v>-5.1265593490471552E-19</v>
       </c>
-      <c r="L127" s="14">
+      <c r="L127" s="20"/>
+      <c r="M127" s="14">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M127" s="14">
+      <c r="N127" s="14">
         <f t="shared" si="7"/>
         <v>-1.7388940951556376E-19</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:14">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -25134,16 +25289,17 @@
         <f t="shared" si="5"/>
         <v>-1.9838490108875178E-19</v>
       </c>
-      <c r="L128" s="14">
+      <c r="L128" s="20"/>
+      <c r="M128" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M128" s="14">
+      <c r="N128" s="14">
         <f t="shared" si="7"/>
         <v>-2.099693455123716E-19</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:14">
       <c r="A129" s="20">
         <v>128</v>
       </c>
@@ -25179,16 +25335,17 @@
         <f t="shared" si="5"/>
         <v>-2.2234256518856164E-19</v>
       </c>
-      <c r="L129" s="14">
+      <c r="L129" s="20"/>
+      <c r="M129" s="14">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M129" s="14">
+      <c r="N129" s="14">
         <f t="shared" si="7"/>
         <v>-1.168635569914351E-19</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:14">
       <c r="A130" s="20">
         <v>129</v>
       </c>
@@ -25224,16 +25381,17 @@
         <f t="shared" si="5"/>
         <v>-5.5214999628275961E-19</v>
       </c>
-      <c r="L130" s="14">
+      <c r="L130" s="20"/>
+      <c r="M130" s="14">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M130" s="14">
+      <c r="N130" s="14">
         <f t="shared" si="7"/>
         <v>-1.6451345421122581E-19</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:14">
       <c r="A131" s="20">
         <v>130</v>
       </c>
@@ -25269,16 +25427,17 @@
         <f t="shared" si="5"/>
         <v>-1.2699279871304073E-18</v>
       </c>
-      <c r="L131" s="14">
+      <c r="L131" s="20"/>
+      <c r="M131" s="14">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M131" s="14">
+      <c r="N131" s="14">
         <f t="shared" si="7"/>
         <v>-1.4784448329736284E-19</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:14">
       <c r="A132" s="20">
         <v>131</v>
       </c>
@@ -25314,16 +25473,17 @@
         <f t="shared" si="5"/>
         <v>-5.1887916417017129E-19</v>
       </c>
-      <c r="L132" s="14">
+      <c r="L132" s="20"/>
+      <c r="M132" s="14">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M132" s="14">
+      <c r="N132" s="14">
         <f t="shared" si="7"/>
         <v>-1.5482139658439996E-19</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:14">
       <c r="A133" s="20">
         <v>132</v>
       </c>
@@ -25352,23 +25512,24 @@
         <v>499</v>
       </c>
       <c r="J133" s="20">
-        <f t="shared" ref="J133:J185" si="8">0.75*PI()*$O$9*$O$8*(SQRT(($O$10/(2*H133))^2 +((9*$O$11*B133)/(1000*$O$8*$O$9))) - ($O$10/(2*H133)))^3 * ((B133-D133)/((I133/(F133/1000))*B133))</f>
+        <f t="shared" ref="J133:J185" si="8">0.75*PI()*$P$9*$P$8*(SQRT(($P$10/(2*H133))^2 +((9*$P$11*B133)/(1000*$P$8*$P$9))) - ($P$10/(2*H133)))^3 * ((B133-D133)/((I133/(F133/1000))*B133))</f>
         <v>-4.6662432748690443E-19</v>
       </c>
       <c r="K133" s="20">
         <f t="shared" ref="K133:K185" si="9">J133* ((1.5*(C133/B133)) + ((C133+E133)/(B133+D133))  + (C133/B133))</f>
         <v>-8.4309584419444235E-19</v>
       </c>
-      <c r="L133" s="14">
-        <f t="shared" ref="L133:L184" si="10">ROUND(J133/$O$13,0)</f>
+      <c r="L133" s="20"/>
+      <c r="M133" s="14">
+        <f t="shared" ref="M133:M184" si="10">ROUND(J133/$P$13,0)</f>
         <v>3</v>
       </c>
-      <c r="M133" s="14">
-        <f t="shared" ref="M133:M185" si="11">J133/L133</f>
+      <c r="N133" s="14">
+        <f t="shared" ref="N133:N185" si="11">J133/M133</f>
         <v>-1.555414424956348E-19</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:14">
       <c r="A134" s="20">
         <v>133</v>
       </c>
@@ -25404,16 +25565,17 @@
         <f t="shared" si="9"/>
         <v>-5.305019712112035E-19</v>
       </c>
-      <c r="L134" s="14">
+      <c r="L134" s="20"/>
+      <c r="M134" s="14">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M134" s="14">
+      <c r="N134" s="14">
         <f t="shared" si="11"/>
         <v>-1.6219193582084876E-19</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:14">
       <c r="A135" s="20">
         <v>134</v>
       </c>
@@ -25449,16 +25611,17 @@
         <f t="shared" si="9"/>
         <v>-3.7188299462596288E-20</v>
       </c>
-      <c r="L135" s="14">
+      <c r="L135" s="20"/>
+      <c r="M135" s="14">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M135" s="14">
+      <c r="N135" s="14">
         <f t="shared" si="11"/>
         <v>-2.0522852793449144E-19</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:14">
       <c r="A136" s="20">
         <v>135</v>
       </c>
@@ -25494,16 +25657,17 @@
         <f t="shared" si="9"/>
         <v>-1.0139278991771024E-19</v>
       </c>
-      <c r="L136" s="14">
+      <c r="L136" s="20"/>
+      <c r="M136" s="14">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M136" s="14">
+      <c r="N136" s="14">
         <f t="shared" si="11"/>
         <v>-1.7671110541845199E-19</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:14">
       <c r="A137" s="20">
         <v>136</v>
       </c>
@@ -25539,16 +25703,17 @@
         <f t="shared" si="9"/>
         <v>-6.1489512228563596E-20</v>
       </c>
-      <c r="L137" s="14">
+      <c r="L137" s="20"/>
+      <c r="M137" s="14">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M137" s="14">
+      <c r="N137" s="14">
         <f t="shared" si="11"/>
         <v>-1.6733558517250256E-19</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:14">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -25584,16 +25749,17 @@
         <f t="shared" si="9"/>
         <v>-1.290411049615564E-19</v>
       </c>
-      <c r="L138" s="14">
+      <c r="L138" s="20"/>
+      <c r="M138" s="14">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="M138" s="14">
+      <c r="N138" s="14">
         <f t="shared" si="11"/>
         <v>-1.7020816526674207E-19</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:14">
       <c r="A139" s="20">
         <v>138</v>
       </c>
@@ -25629,16 +25795,17 @@
         <f t="shared" si="9"/>
         <v>-1.5405596033679465E-19</v>
       </c>
-      <c r="L139" s="14">
+      <c r="L139" s="20"/>
+      <c r="M139" s="14">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M139" s="14">
+      <c r="N139" s="14">
         <f t="shared" si="11"/>
         <v>-1.3674908764039718E-19</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:14">
       <c r="A140" s="20">
         <v>139</v>
       </c>
@@ -25674,16 +25841,17 @@
         <f t="shared" si="9"/>
         <v>-5.5733006259789981E-19</v>
       </c>
-      <c r="L140" s="14">
+      <c r="L140" s="20"/>
+      <c r="M140" s="14">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="M140" s="14">
+      <c r="N140" s="14">
         <f t="shared" si="11"/>
         <v>-1.5791926702781047E-19</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:14">
       <c r="A141" s="20">
         <v>140</v>
       </c>
@@ -25719,16 +25887,17 @@
         <f t="shared" si="9"/>
         <v>-1.9896471120207748E-19</v>
       </c>
-      <c r="L141" s="14">
+      <c r="L141" s="20"/>
+      <c r="M141" s="14">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M141" s="14">
+      <c r="N141" s="14">
         <f t="shared" si="11"/>
         <v>-1.7810936005862674E-19</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:14">
       <c r="A142" s="20">
         <v>141</v>
       </c>
@@ -25764,16 +25933,17 @@
         <f t="shared" si="9"/>
         <v>-2.6059747004711947E-19</v>
       </c>
-      <c r="L142" s="14">
+      <c r="L142" s="20"/>
+      <c r="M142" s="14">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="M142" s="14">
+      <c r="N142" s="14">
         <f t="shared" si="11"/>
         <v>-1.4092137067439476E-19</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:14">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -25809,16 +25979,17 @@
         <f t="shared" si="9"/>
         <v>-6.2664171760596487E-19</v>
       </c>
-      <c r="L143" s="14">
+      <c r="L143" s="20"/>
+      <c r="M143" s="14">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="M143" s="14">
+      <c r="N143" s="14">
         <f t="shared" si="11"/>
         <v>-1.5841258928372048E-19</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:14">
       <c r="A144" s="20">
         <v>143</v>
       </c>
@@ -25854,16 +26025,17 @@
         <f t="shared" si="9"/>
         <v>-8.4114556791141257E-19</v>
       </c>
-      <c r="L144" s="14">
+      <c r="L144" s="20"/>
+      <c r="M144" s="14">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="M144" s="14">
+      <c r="N144" s="14">
         <f t="shared" si="11"/>
         <v>-1.5991152182459548E-19</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:14">
       <c r="A145" s="20">
         <v>144</v>
       </c>
@@ -25899,16 +26071,17 @@
         <f t="shared" si="9"/>
         <v>-1.7951748735560816E-19</v>
       </c>
-      <c r="L145" s="14">
+      <c r="L145" s="20"/>
+      <c r="M145" s="14">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M145" s="14">
+      <c r="N145" s="14">
         <f t="shared" si="11"/>
         <v>-1.3519683598637808E-19</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:14">
       <c r="A146" s="20">
         <v>145</v>
       </c>
@@ -25944,16 +26117,17 @@
         <f t="shared" si="9"/>
         <v>-1.6427678638976734E-19</v>
       </c>
-      <c r="L146" s="14">
+      <c r="L146" s="20"/>
+      <c r="M146" s="14">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M146" s="14">
+      <c r="N146" s="14">
         <f t="shared" si="11"/>
         <v>-1.1927407904011775E-19</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:14">
       <c r="A147" s="20">
         <v>146</v>
       </c>
@@ -25989,16 +26163,17 @@
         <f t="shared" si="9"/>
         <v>-3.199784088026803E-19</v>
       </c>
-      <c r="L147" s="14">
+      <c r="L147" s="20"/>
+      <c r="M147" s="14">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="M147" s="14">
+      <c r="N147" s="14">
         <f t="shared" si="11"/>
         <v>-1.5562870952266183E-19</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:14">
       <c r="A148" s="20">
         <v>147</v>
       </c>
@@ -26034,16 +26209,17 @@
         <f t="shared" si="9"/>
         <v>-4.637569115301613E-19</v>
       </c>
-      <c r="L148" s="14">
+      <c r="L148" s="20"/>
+      <c r="M148" s="14">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="M148" s="14">
+      <c r="N148" s="14">
         <f t="shared" si="11"/>
         <v>-1.586022286946956E-19</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:14">
       <c r="A149" s="20">
         <v>148</v>
       </c>
@@ -26079,16 +26255,17 @@
         <f t="shared" si="9"/>
         <v>-3.8241799632035576E-19</v>
       </c>
-      <c r="L149" s="14">
+      <c r="L149" s="20"/>
+      <c r="M149" s="14">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="M149" s="14">
+      <c r="N149" s="14">
         <f t="shared" si="11"/>
         <v>-1.6756846091483453E-19</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:14">
       <c r="A150" s="20">
         <v>149</v>
       </c>
@@ -26124,16 +26301,17 @@
         <f t="shared" si="9"/>
         <v>-1.0067197172405556E-18</v>
       </c>
-      <c r="L150" s="14">
+      <c r="L150" s="20"/>
+      <c r="M150" s="14">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="M150" s="14">
+      <c r="N150" s="14">
         <f t="shared" si="11"/>
         <v>-1.5067373055156591E-19</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:14">
       <c r="A151" s="20">
         <v>150</v>
       </c>
@@ -26169,16 +26347,17 @@
         <f t="shared" si="9"/>
         <v>-7.5865397552093032E-19</v>
       </c>
-      <c r="L151" s="14">
+      <c r="L151" s="20"/>
+      <c r="M151" s="14">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M151" s="14">
+      <c r="N151" s="14">
         <f t="shared" si="11"/>
         <v>-1.5283816406581583E-19</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:14">
       <c r="A152" s="20">
         <v>151</v>
       </c>
@@ -26214,16 +26393,17 @@
         <f t="shared" si="9"/>
         <v>2.4238599708579706E-20</v>
       </c>
-      <c r="L152" s="14">
+      <c r="L152" s="20"/>
+      <c r="M152" s="14">
         <f t="shared" si="10"/>
         <v>-2</v>
       </c>
-      <c r="M152" s="14">
+      <c r="N152" s="14">
         <f t="shared" si="11"/>
         <v>-1.1978251601733212E-19</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:14">
       <c r="A153" s="20">
         <v>152</v>
       </c>
@@ -26259,16 +26439,17 @@
         <f t="shared" si="9"/>
         <v>4.2889586294962861E-20</v>
       </c>
-      <c r="L153" s="14">
+      <c r="L153" s="20"/>
+      <c r="M153" s="14">
         <f t="shared" si="10"/>
         <v>-2</v>
       </c>
-      <c r="M153" s="14">
+      <c r="N153" s="14">
         <f t="shared" si="11"/>
         <v>-1.2958331375828026E-19</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:14">
       <c r="A154" s="20">
         <v>153</v>
       </c>
@@ -26304,16 +26485,17 @@
         <f t="shared" si="9"/>
         <v>2.0471949450549288E-20</v>
       </c>
-      <c r="L154" s="14">
+      <c r="L154" s="20"/>
+      <c r="M154" s="14">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="M154" s="14">
+      <c r="N154" s="14">
         <f t="shared" si="11"/>
         <v>-1.1772100199862741E-19</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:14">
       <c r="A155" s="20">
         <v>154</v>
       </c>
@@ -26349,16 +26531,17 @@
         <f t="shared" si="9"/>
         <v>1.8185694497895278E-20</v>
       </c>
-      <c r="L155" s="14">
+      <c r="L155" s="20"/>
+      <c r="M155" s="14">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="M155" s="14">
+      <c r="N155" s="14">
         <f t="shared" si="11"/>
         <v>-1.1121628772742515E-19</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:14">
       <c r="A156" s="20">
         <v>155</v>
       </c>
@@ -26394,16 +26577,17 @@
         <f t="shared" si="9"/>
         <v>2.1426361245998672E-20</v>
       </c>
-      <c r="L156" s="14">
+      <c r="L156" s="20"/>
+      <c r="M156" s="14">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="M156" s="14">
+      <c r="N156" s="14">
         <f t="shared" si="11"/>
         <v>-1.6359540116728507E-19</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:14">
       <c r="A157" s="20">
         <v>156</v>
       </c>
@@ -26439,16 +26623,17 @@
         <f t="shared" si="9"/>
         <v>-3.5767471111178137E-17</v>
       </c>
-      <c r="L157" s="14">
+      <c r="L157" s="20"/>
+      <c r="M157" s="14">
         <f t="shared" si="10"/>
         <v>642</v>
       </c>
-      <c r="M157" s="14">
+      <c r="N157" s="14">
         <f t="shared" si="11"/>
         <v>-1.5458125979777855E-19</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:14">
       <c r="A158" s="20">
         <v>157</v>
       </c>
@@ -26484,16 +26669,17 @@
         <f t="shared" si="9"/>
         <v>6.6548227354753246E-18</v>
       </c>
-      <c r="L158" s="14">
+      <c r="L158" s="20"/>
+      <c r="M158" s="14">
         <f t="shared" si="10"/>
         <v>-156</v>
       </c>
-      <c r="M158" s="14">
+      <c r="N158" s="14">
         <f t="shared" si="11"/>
         <v>-1.5428646347393957E-19</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:14">
       <c r="A159" s="20">
         <v>158</v>
       </c>
@@ -26529,16 +26715,17 @@
         <f t="shared" si="9"/>
         <v>4.1725061534272855E-18</v>
       </c>
-      <c r="L159" s="14">
+      <c r="L159" s="20"/>
+      <c r="M159" s="14">
         <f t="shared" si="10"/>
         <v>-72</v>
       </c>
-      <c r="M159" s="14">
+      <c r="N159" s="14">
         <f t="shared" si="11"/>
         <v>-1.5385482731813134E-19</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:14">
       <c r="A160" s="20">
         <v>159</v>
       </c>
@@ -26574,16 +26761,17 @@
         <f t="shared" si="9"/>
         <v>5.8571221867461926E-18</v>
       </c>
-      <c r="L160" s="14">
+      <c r="L160" s="20"/>
+      <c r="M160" s="14">
         <f t="shared" si="10"/>
         <v>-169</v>
       </c>
-      <c r="M160" s="14">
+      <c r="N160" s="14">
         <f t="shared" si="11"/>
         <v>-1.5444761226199748E-19</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:14">
       <c r="A161" s="20">
         <v>160</v>
       </c>
@@ -26619,16 +26807,17 @@
         <f t="shared" si="9"/>
         <v>-1.495637681194012E-17</v>
       </c>
-      <c r="L161" s="14">
+      <c r="L161" s="20"/>
+      <c r="M161" s="14">
         <f t="shared" si="10"/>
         <v>235</v>
       </c>
-      <c r="M161" s="14">
+      <c r="N161" s="14">
         <f t="shared" si="11"/>
         <v>-1.543068657661351E-19</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:14">
       <c r="A162" s="20">
         <v>161</v>
       </c>
@@ -26664,16 +26853,17 @@
         <f t="shared" si="9"/>
         <v>-1.5450306674745718E-17</v>
       </c>
-      <c r="L162" s="14">
+      <c r="L162" s="20"/>
+      <c r="M162" s="14">
         <f t="shared" si="10"/>
         <v>244</v>
       </c>
-      <c r="M162" s="14">
+      <c r="N162" s="14">
         <f t="shared" si="11"/>
         <v>-1.5475855732942193E-19</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:14">
       <c r="A163" s="20">
         <v>162</v>
       </c>
@@ -26709,16 +26899,17 @@
         <f t="shared" si="9"/>
         <v>7.2379439421369208E-18</v>
       </c>
-      <c r="L163" s="14">
+      <c r="L163" s="20"/>
+      <c r="M163" s="14">
         <f t="shared" si="10"/>
         <v>-194</v>
       </c>
-      <c r="M163" s="14">
+      <c r="N163" s="14">
         <f t="shared" si="11"/>
         <v>-1.5438303387543885E-19</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:14">
       <c r="A164" s="20">
         <v>163</v>
       </c>
@@ -26754,16 +26945,17 @@
         <f t="shared" si="9"/>
         <v>7.6522171181731564E-18</v>
       </c>
-      <c r="L164" s="14">
+      <c r="L164" s="20"/>
+      <c r="M164" s="14">
         <f t="shared" si="10"/>
         <v>-227</v>
       </c>
-      <c r="M164" s="14">
+      <c r="N164" s="14">
         <f t="shared" si="11"/>
         <v>-1.5451335573781019E-19</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:14">
       <c r="A165" s="20">
         <v>164</v>
       </c>
@@ -26799,16 +26991,17 @@
         <f t="shared" si="9"/>
         <v>2.689476880739625E-18</v>
       </c>
-      <c r="L165" s="14">
+      <c r="L165" s="20"/>
+      <c r="M165" s="14">
         <f t="shared" si="10"/>
         <v>-58</v>
       </c>
-      <c r="M165" s="14">
+      <c r="N165" s="14">
         <f t="shared" si="11"/>
         <v>-1.5490524135814405E-19</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:14">
       <c r="A166" s="20">
         <v>165</v>
       </c>
@@ -26844,16 +27037,17 @@
         <f t="shared" si="9"/>
         <v>6.8578383850399862E-18</v>
       </c>
-      <c r="L166" s="14">
+      <c r="L166" s="20"/>
+      <c r="M166" s="14">
         <f t="shared" si="10"/>
         <v>-186</v>
       </c>
-      <c r="M166" s="14">
+      <c r="N166" s="14">
         <f t="shared" si="11"/>
         <v>-1.5481036169464634E-19</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:14">
       <c r="A167" s="20">
         <v>166</v>
       </c>
@@ -26889,16 +27083,17 @@
         <f t="shared" si="9"/>
         <v>4.4263657748535697E-18</v>
       </c>
-      <c r="L167" s="14">
+      <c r="L167" s="20"/>
+      <c r="M167" s="14">
         <f t="shared" si="10"/>
         <v>-102</v>
       </c>
-      <c r="M167" s="14">
+      <c r="N167" s="14">
         <f t="shared" si="11"/>
         <v>-1.548815526199365E-19</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:14">
       <c r="A168" s="20">
         <v>167</v>
       </c>
@@ -26934,16 +27129,17 @@
         <f t="shared" si="9"/>
         <v>3.4597253118072948E-18</v>
       </c>
-      <c r="L168" s="14">
+      <c r="L168" s="20"/>
+      <c r="M168" s="14">
         <f t="shared" si="10"/>
         <v>-82</v>
       </c>
-      <c r="M168" s="14">
+      <c r="N168" s="14">
         <f t="shared" si="11"/>
         <v>-1.5414406217448837E-19</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:14">
       <c r="A169" s="20">
         <v>168</v>
       </c>
@@ -26979,16 +27175,17 @@
         <f t="shared" si="9"/>
         <v>-2.2019129065306301E-18</v>
       </c>
-      <c r="L169" s="14">
+      <c r="L169" s="20"/>
+      <c r="M169" s="14">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="M169" s="14">
+      <c r="N169" s="14">
         <f t="shared" si="11"/>
         <v>-1.5399954894415126E-19</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:14">
       <c r="A170" s="20">
         <v>169</v>
       </c>
@@ -27024,16 +27221,17 @@
         <f t="shared" si="9"/>
         <v>1.0319095456906414E-19</v>
       </c>
-      <c r="L170" s="14">
+      <c r="L170" s="20"/>
+      <c r="M170" s="14">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="M170" s="14">
+      <c r="N170" s="14">
         <f t="shared" si="11"/>
         <v>-1.6994053808078978E-19</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:14">
       <c r="A171" s="20">
         <v>170</v>
       </c>
@@ -27069,16 +27267,17 @@
         <f t="shared" si="9"/>
         <v>-3.5049154246118326E-19</v>
       </c>
-      <c r="L171" s="14">
+      <c r="L171" s="20"/>
+      <c r="M171" s="14">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="M171" s="14">
+      <c r="N171" s="14">
         <f t="shared" si="11"/>
         <v>-1.6073741247767368E-19</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:14">
       <c r="A172" s="20">
         <v>171</v>
       </c>
@@ -27114,16 +27313,17 @@
         <f t="shared" si="9"/>
         <v>-5.4393993024084158E-19</v>
       </c>
-      <c r="L172" s="14">
+      <c r="L172" s="20"/>
+      <c r="M172" s="14">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="M172" s="14">
+      <c r="N172" s="14">
         <f t="shared" si="11"/>
         <v>-1.5832722471263566E-19</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:14">
       <c r="A173" s="20">
         <v>172</v>
       </c>
@@ -27159,16 +27359,17 @@
         <f t="shared" si="9"/>
         <v>-1.8220097900396173E-18</v>
       </c>
-      <c r="L173" s="14">
+      <c r="L173" s="20"/>
+      <c r="M173" s="14">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="M173" s="14">
+      <c r="N173" s="14">
         <f t="shared" si="11"/>
         <v>-1.5570186948990371E-19</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:14">
       <c r="A174" s="20">
         <v>173</v>
       </c>
@@ -27204,16 +27405,17 @@
         <f t="shared" si="9"/>
         <v>-1.1802338372593278E-19</v>
       </c>
-      <c r="L174" s="14">
+      <c r="L174" s="20"/>
+      <c r="M174" s="14">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M174" s="14">
+      <c r="N174" s="14">
         <f t="shared" si="11"/>
         <v>-1.5877702939705666E-19</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:14">
       <c r="A175" s="20">
         <v>174</v>
       </c>
@@ -27249,16 +27451,17 @@
         <f t="shared" si="9"/>
         <v>-1.5293444809300532E-18</v>
       </c>
-      <c r="L175" s="14">
+      <c r="L175" s="20"/>
+      <c r="M175" s="14">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="M175" s="14">
+      <c r="N175" s="14">
         <f t="shared" si="11"/>
         <v>-1.5586731530411815E-19</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:14">
       <c r="A176" s="20">
         <v>175</v>
       </c>
@@ -27294,16 +27497,17 @@
         <f t="shared" si="9"/>
         <v>-5.7535673502732046E-16</v>
       </c>
-      <c r="L176" s="14">
+      <c r="L176" s="20"/>
+      <c r="M176" s="14">
         <f t="shared" si="10"/>
         <v>2539</v>
       </c>
-      <c r="M176" s="14">
+      <c r="N176" s="14">
         <f t="shared" si="11"/>
         <v>-1.5448709034112761E-19</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:14">
       <c r="A177" s="20">
         <v>176</v>
       </c>
@@ -27339,16 +27543,17 @@
         <f t="shared" si="9"/>
         <v>-1.3975570634559528E-16</v>
       </c>
-      <c r="L177" s="14">
+      <c r="L177" s="20"/>
+      <c r="M177" s="14">
         <f t="shared" si="10"/>
         <v>1196</v>
       </c>
-      <c r="M177" s="14">
+      <c r="N177" s="14">
         <f t="shared" si="11"/>
         <v>-1.5443186790995403E-19</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:14">
       <c r="A178" s="20">
         <v>177</v>
       </c>
@@ -27384,16 +27589,17 @@
         <f t="shared" si="9"/>
         <v>-4.4803595395406453E-16</v>
       </c>
-      <c r="L178" s="14">
+      <c r="L178" s="20"/>
+      <c r="M178" s="14">
         <f t="shared" si="10"/>
         <v>1956</v>
       </c>
-      <c r="M178" s="14">
+      <c r="N178" s="14">
         <f t="shared" si="11"/>
         <v>-1.545013248858376E-19</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:14">
       <c r="A179" s="20">
         <v>178</v>
       </c>
@@ -27429,16 +27635,17 @@
         <f t="shared" si="9"/>
         <v>-1.6212939517149441E-16</v>
       </c>
-      <c r="L179" s="14">
+      <c r="L179" s="20"/>
+      <c r="M179" s="14">
         <f t="shared" si="10"/>
         <v>1882</v>
       </c>
-      <c r="M179" s="14">
+      <c r="N179" s="14">
         <f t="shared" si="11"/>
         <v>-1.5444184358203833E-19</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:14">
       <c r="A180" s="20">
         <v>179</v>
       </c>
@@ -27474,16 +27681,17 @@
         <f t="shared" si="9"/>
         <v>-2.7146680929508897E-16</v>
       </c>
-      <c r="L180" s="14">
+      <c r="L180" s="20"/>
+      <c r="M180" s="14">
         <f t="shared" si="10"/>
         <v>1549</v>
       </c>
-      <c r="M180" s="14">
+      <c r="N180" s="14">
         <f t="shared" si="11"/>
         <v>-1.545069238580476E-19</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:14">
       <c r="A181" s="20">
         <v>180</v>
       </c>
@@ -27519,16 +27727,17 @@
         <f t="shared" si="9"/>
         <v>-3.2368248616100551E-16</v>
       </c>
-      <c r="L181" s="14">
+      <c r="L181" s="20"/>
+      <c r="M181" s="14">
         <f t="shared" si="10"/>
         <v>2168</v>
       </c>
-      <c r="M181" s="14">
+      <c r="N181" s="14">
         <f t="shared" si="11"/>
         <v>-1.5444022996172953E-19</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:14">
       <c r="A182" s="20">
         <v>181</v>
       </c>
@@ -27564,16 +27773,17 @@
         <f t="shared" si="9"/>
         <v>-5.4176817370289767E-16</v>
       </c>
-      <c r="L182" s="14">
+      <c r="L182" s="20"/>
+      <c r="M182" s="14">
         <f t="shared" si="10"/>
         <v>2412</v>
       </c>
-      <c r="M182" s="14">
+      <c r="N182" s="14">
         <f t="shared" si="11"/>
         <v>-1.5446250830253457E-19</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:14">
       <c r="A183" s="20">
         <v>182</v>
       </c>
@@ -27609,16 +27819,17 @@
         <f t="shared" si="9"/>
         <v>-6.8213304132204553E-16</v>
       </c>
-      <c r="L183" s="14">
+      <c r="L183" s="20"/>
+      <c r="M183" s="14">
         <f t="shared" si="10"/>
         <v>3697</v>
       </c>
-      <c r="M183" s="14">
+      <c r="N183" s="14">
         <f t="shared" si="11"/>
         <v>-1.5446634719286008E-19</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:14">
       <c r="A184" s="20">
         <v>183</v>
       </c>
@@ -27654,16 +27865,17 @@
         <f t="shared" si="9"/>
         <v>1.1208201914047704E-17</v>
       </c>
-      <c r="L184" s="14">
+      <c r="L184" s="20"/>
+      <c r="M184" s="14">
         <f t="shared" si="10"/>
         <v>-112</v>
       </c>
-      <c r="M184" s="14">
+      <c r="N184" s="14">
         <f t="shared" si="11"/>
         <v>-1.5426254578007836E-19</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:14" ht="15.75" thickBot="1">
       <c r="A185" s="20">
         <v>184</v>
       </c>
@@ -27699,31 +27911,74 @@
         <f t="shared" si="9"/>
         <v>-2.3092482820051803E-16</v>
       </c>
-      <c r="L185" s="14">
-        <f>ROUND(J185/$O$13,0)</f>
+      <c r="L185" s="20"/>
+      <c r="M185" s="14">
+        <f>ROUND(J185/$P$13,0)</f>
         <v>1580</v>
       </c>
-      <c r="M185" s="14">
+      <c r="N185" s="14">
         <f t="shared" si="11"/>
         <v>-1.5442803689958767E-19</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
-      <c r="A186" s="20">
+    <row r="186" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A186" s="82">
         <v>185</v>
       </c>
-      <c r="B186" s="75"/>
-      <c r="C186" s="75"/>
-      <c r="D186" s="75"/>
-      <c r="E186" s="75"/>
-      <c r="F186" s="69"/>
-      <c r="G186" s="69"/>
-      <c r="H186" s="51"/>
-      <c r="I186" s="51"/>
-      <c r="J186" s="20"/>
-      <c r="K186" s="20"/>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="B186" s="83">
+        <f>AVERAGE(B4:B185)</f>
+        <v>0.62382619786185878</v>
+      </c>
+      <c r="C186" s="83">
+        <f t="shared" ref="C186:N186" si="12">AVERAGE(C4:C185)</f>
+        <v>0.11338672890963437</v>
+      </c>
+      <c r="D186" s="83">
+        <f t="shared" si="12"/>
+        <v>1.4450393867165185</v>
+      </c>
+      <c r="E186" s="83">
+        <f t="shared" si="12"/>
+        <v>0.19572204179225838</v>
+      </c>
+      <c r="F186" s="83">
+        <f t="shared" si="12"/>
+        <v>7.7917032967033002</v>
+      </c>
+      <c r="G186" s="83">
+        <f t="shared" si="12"/>
+        <v>22.753296703296705</v>
+      </c>
+      <c r="H186" s="83">
+        <f t="shared" si="12"/>
+        <v>95200.434065934067</v>
+      </c>
+      <c r="I186" s="83">
+        <f t="shared" si="12"/>
+        <v>500.6868131868132</v>
+      </c>
+      <c r="J186" s="83">
+        <f t="shared" si="12"/>
+        <v>-8.6798833213855968E-18</v>
+      </c>
+      <c r="K186" s="83">
+        <f t="shared" si="12"/>
+        <v>-4.7851584047714758E-17</v>
+      </c>
+      <c r="L186" s="83" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M186" s="83">
+        <f t="shared" si="12"/>
+        <v>56.153846153846153</v>
+      </c>
+      <c r="N186" s="83" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="20">
         <v>186</v>
       </c>
@@ -27737,8 +27992,9 @@
       <c r="I187" s="51"/>
       <c r="J187" s="20"/>
       <c r="K187" s="20"/>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="L187" s="20"/>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="20">
         <v>187</v>
       </c>
@@ -27752,8 +28008,9 @@
       <c r="I188" s="51"/>
       <c r="J188" s="20"/>
       <c r="K188" s="20"/>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="L188" s="20"/>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="20">
         <v>188</v>
       </c>
@@ -27767,8 +28024,9 @@
       <c r="I189" s="51"/>
       <c r="J189" s="20"/>
       <c r="K189" s="20"/>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="L189" s="20"/>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="20">
         <v>189</v>
       </c>
@@ -27782,8 +28040,9 @@
       <c r="I190" s="51"/>
       <c r="J190" s="20"/>
       <c r="K190" s="20"/>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="L190" s="20"/>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="20">
         <v>190</v>
       </c>
@@ -27797,8 +28056,9 @@
       <c r="I191" s="51"/>
       <c r="J191" s="20"/>
       <c r="K191" s="20"/>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="L191" s="20"/>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="20">
         <v>191</v>
       </c>
@@ -27812,8 +28072,9 @@
       <c r="I192" s="51"/>
       <c r="J192" s="20"/>
       <c r="K192" s="20"/>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192" s="20"/>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="20">
         <v>192</v>
       </c>
@@ -27827,8 +28088,9 @@
       <c r="I193" s="51"/>
       <c r="J193" s="20"/>
       <c r="K193" s="20"/>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193" s="20"/>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="20">
         <v>193</v>
       </c>
@@ -27842,8 +28104,9 @@
       <c r="I194" s="51"/>
       <c r="J194" s="20"/>
       <c r="K194" s="20"/>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194" s="20"/>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="20">
         <v>194</v>
       </c>
@@ -27857,8 +28120,9 @@
       <c r="I195" s="51"/>
       <c r="J195" s="20"/>
       <c r="K195" s="20"/>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195" s="20"/>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="20">
         <v>195</v>
       </c>
@@ -27872,8 +28136,9 @@
       <c r="I196" s="51"/>
       <c r="J196" s="20"/>
       <c r="K196" s="20"/>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196" s="20"/>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="20">
         <v>196</v>
       </c>
@@ -27887,8 +28152,9 @@
       <c r="I197" s="51"/>
       <c r="J197" s="20"/>
       <c r="K197" s="20"/>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197" s="20"/>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="20">
         <v>197</v>
       </c>
@@ -27902,8 +28168,9 @@
       <c r="I198" s="51"/>
       <c r="J198" s="20"/>
       <c r="K198" s="20"/>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="L198" s="20"/>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="20">
         <v>198</v>
       </c>
@@ -27917,8 +28184,9 @@
       <c r="I199" s="51"/>
       <c r="J199" s="20"/>
       <c r="K199" s="20"/>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="L199" s="20"/>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="20">
         <v>199</v>
       </c>
@@ -27932,8 +28200,9 @@
       <c r="I200" s="51"/>
       <c r="J200" s="20"/>
       <c r="K200" s="20"/>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="L200" s="20"/>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="20">
         <v>200</v>
       </c>
@@ -27947,8 +28216,9 @@
       <c r="I201" s="51"/>
       <c r="J201" s="20"/>
       <c r="K201" s="20"/>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="L201" s="20"/>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="20">
         <v>201</v>
       </c>
@@ -27962,8 +28232,9 @@
       <c r="I202" s="51"/>
       <c r="J202" s="20"/>
       <c r="K202" s="20"/>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="L202" s="20"/>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" s="20">
         <v>202</v>
       </c>
@@ -27977,8 +28248,9 @@
       <c r="I203" s="51"/>
       <c r="J203" s="20"/>
       <c r="K203" s="20"/>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="L203" s="20"/>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="20">
         <v>203</v>
       </c>
@@ -27992,8 +28264,9 @@
       <c r="I204" s="51"/>
       <c r="J204" s="20"/>
       <c r="K204" s="20"/>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="L204" s="20"/>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="26">
         <v>204</v>
       </c>
@@ -28006,7 +28279,7 @@
       <c r="H205" s="78"/>
       <c r="I205" s="78"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:12">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -28019,7 +28292,7 @@
       <c r="H206" s="22"/>
       <c r="I206" s="22"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:12">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -28032,7 +28305,7 @@
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:12">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -32220,7 +32493,7 @@
   <sortState ref="A2:B175">
     <sortCondition ref="B2:B175"/>
   </sortState>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1:J185 J187:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
